--- a/media/subset.xlsx
+++ b/media/subset.xlsx
@@ -12,48 +12,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve">PASL.TAXON.SCIENTIFIC.NAME.NO.AUTHOR(S)</t>
   </si>
   <si>
-    <t xml:space="preserve">PASL.TAXON.SCIENTIFIC.NAME.WITH.AUTHOR(S)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DATASET.TAXON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ks_G-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ks_G-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ks_G-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ks_G-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ks_G-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ks_G-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ks_G-K-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carex concolor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carex concolor R. Br.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerastium arvense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerastium arvense L.</t>
+    <t xml:space="preserve">PaSL.TaXON.SCIENTIFIC.NaME.WITH.aUTHOR(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DaTaSET.TaXON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_105a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_105b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_106(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_106(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_107(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_108(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_110(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_110(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_110(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_110(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_111(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_111(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_111(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_111(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_113(6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_116a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_116b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_119(1a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_119(1b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_119(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_122(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_124(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_124(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_124(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_124(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_124(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_125(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_125(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_125(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_132a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_132b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_133(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_133(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_133(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_139(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_139(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_139(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_139(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_141(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_141(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_142(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_142(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_142(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_143(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_145(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_145(3a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_145(3b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_145(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_146(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_146(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ks_146(3)</t>
   </si>
 </sst>
 </file>
@@ -416,69 +668,269 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/media/subset.xlsx
+++ b/media/subset.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">PASL.TAXON.SCIENTIFIC.NAME.NO.AUTHOR(S)</t>
   </si>
@@ -306,6 +306,30 @@
   </si>
   <si>
     <t xml:space="preserve">Ks_146(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artemisia tilesii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artemisia tilesii Ledeb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aulacomnium palustre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aulacomnium palustre (Hedw.) Schwaegr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex lachenalii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex lachenalii Schkuhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex rotundata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex rotundata Wahlenb.</t>
   </si>
 </sst>
 </file>
@@ -933,6 +957,1190 @@
         <v>97</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>38</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>38</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>38</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>38</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>38</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>16</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>38</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>16</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>38</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>16</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>16</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>16</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>16</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>16</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/media/subset.xlsx
+++ b/media/subset.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t xml:space="preserve">PASL.TAXON.SCIENTIFIC.NAME.NO.AUTHOR(S)</t>
   </si>
@@ -306,6 +306,21 @@
   </si>
   <si>
     <t xml:space="preserve">Ks_146(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex bigelowii s. ensifolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex bigelowii s. ensifolia (Turcz. ex Ledeb.) ined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex arctisibirica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex lachenalii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carex lachenalii Schkuhr</t>
   </si>
 </sst>
 </file>
@@ -933,6 +948,598 @@
         <v>97</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>63</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>38</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>16</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>38</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>38</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>16</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>38</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
